--- a/screenshot/cycle.xlsx
+++ b/screenshot/cycle.xlsx
@@ -379,15 +379,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
+      <xdr:colOff>178560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>65450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>35685</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -396,8 +396,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="4693642">
-          <a:off x="635792" y="3950493"/>
-          <a:ext cx="2119313" cy="923925"/>
+          <a:off x="589451" y="4007484"/>
+          <a:ext cx="2235743" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1015,9 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE42" sqref="AE42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
